--- a/gradeSort/公共选修课学分.xlsx
+++ b/gradeSort/公共选修课学分.xlsx
@@ -18,14 +18,347 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="107">
+  <si>
+    <t>2015302868</t>
+  </si>
+  <si>
+    <t>胡敏</t>
+  </si>
+  <si>
+    <t>高等数学Ⅰ（上）</t>
+  </si>
+  <si>
+    <t>职业发展（生涯规划）指导</t>
+  </si>
+  <si>
+    <t>大学英语（二）</t>
+  </si>
+  <si>
+    <t>C语言程序设计</t>
+  </si>
+  <si>
+    <t>形势与政策（一）</t>
+  </si>
+  <si>
+    <t>军事理论</t>
+  </si>
+  <si>
+    <t>思想道德修养与法律基础</t>
+  </si>
+  <si>
+    <t>计算机科学导论</t>
+  </si>
+  <si>
+    <t>手球</t>
+  </si>
+  <si>
+    <t>Java程序设计(双语)</t>
+  </si>
+  <si>
+    <t>形势与政策（二）</t>
+  </si>
+  <si>
+    <t>大学生心理健康教育</t>
+  </si>
+  <si>
+    <t>大学物理（上）</t>
+  </si>
+  <si>
+    <t>高等数学Ⅰ（下）</t>
+  </si>
+  <si>
+    <t>离散数学</t>
+  </si>
+  <si>
+    <t>大学物理实验(上)</t>
+  </si>
+  <si>
+    <t>马克思主义基本原理</t>
+  </si>
+  <si>
+    <t>大学英语（三）</t>
+  </si>
+  <si>
+    <t>模拟电子技术</t>
+  </si>
+  <si>
+    <t>数字逻辑</t>
+  </si>
+  <si>
+    <t>数据结构课程设计</t>
+  </si>
+  <si>
+    <t>毛泽东思想中国特色社会主义概论-上</t>
+  </si>
+  <si>
+    <t>形势与政策（三）</t>
+  </si>
+  <si>
+    <t>线性代数</t>
+  </si>
+  <si>
+    <t>概率论与数理统计</t>
+  </si>
+  <si>
+    <t>追寻幸福：西方伦理史视角(尔雅)</t>
+  </si>
+  <si>
+    <t>大学物理实验Ⅰ（下）</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>微积分解题方法选讲</t>
+  </si>
+  <si>
+    <t>认识实习</t>
+  </si>
+  <si>
+    <t>大学物理（下）Ⅰ</t>
+  </si>
+  <si>
+    <t>大学英语（四）</t>
+  </si>
+  <si>
+    <t>信息安全的数学基础</t>
+  </si>
+  <si>
+    <t>组成原理课程设计</t>
+  </si>
+  <si>
+    <t>汇编语言程序设计</t>
+  </si>
+  <si>
+    <t>数据库系统原理实验及课程设计</t>
+  </si>
+  <si>
+    <t>中国近现代史纲要</t>
+  </si>
+  <si>
+    <t>中国现代文学名家名作(尔雅)</t>
+  </si>
+  <si>
+    <t>大学英语（五）</t>
+  </si>
+  <si>
+    <t>Jsp程序设计</t>
+  </si>
+  <si>
+    <t>形势与政策（四）</t>
+  </si>
+  <si>
+    <t>设计与人文：当代公共艺术(尔雅)</t>
+  </si>
+  <si>
+    <t>计算机组成原理</t>
+  </si>
+  <si>
+    <t>毛泽东思想中国特色社会主义概论-下</t>
+  </si>
+  <si>
+    <t>数据库概论</t>
+  </si>
+  <si>
+    <t>现代密码学</t>
+  </si>
+  <si>
+    <t>信息论与编码技术</t>
+  </si>
+  <si>
+    <t>Android系统开发</t>
+  </si>
+  <si>
+    <t>法理学(尔雅)</t>
+  </si>
+  <si>
+    <t>计算机网络</t>
+  </si>
+  <si>
+    <t>编译原理</t>
+  </si>
+  <si>
+    <t>形势与政策（五）</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>聆听心声：音乐审美心理分析(尔雅)</t>
+  </si>
+  <si>
+    <t>排球</t>
+  </si>
+  <si>
+    <t>操作系统课程设计</t>
+  </si>
+  <si>
+    <t>网络安全与病毒防范</t>
+  </si>
+  <si>
+    <t>形势与政策（六）</t>
+  </si>
+  <si>
+    <t>信息隐藏技术</t>
+  </si>
+  <si>
+    <t>Linux管理系统及开发</t>
+  </si>
+  <si>
+    <t>武术（散打）</t>
+  </si>
+  <si>
+    <t>知识产权法</t>
+  </si>
+  <si>
+    <t>操作系统安全</t>
+  </si>
+  <si>
+    <t>软件工程</t>
+  </si>
+  <si>
+    <t>就业指导</t>
+  </si>
+  <si>
+    <t>数据安全与恢复技术</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>99.34</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99.35</t>
+  </si>
+  <si>
+    <t>99.61</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>99.51</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>99.68</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>89.2</t>
+  </si>
+  <si>
+    <t>76.6</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +386,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +402,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +447,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +482,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +664,622 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:BP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T2" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" t="s">
+        <v>73</v>
+      </c>
+      <c r="V2" t="s">
+        <v>70</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>72</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>73</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BO2" t="s">
+        <v>69</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K3" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T3" t="s">
+        <v>85</v>
+      </c>
+      <c r="U3" t="s">
+        <v>82</v>
+      </c>
+      <c r="V3" t="s">
+        <v>79</v>
+      </c>
+      <c r="W3" t="s">
+        <v>80</v>
+      </c>
+      <c r="X3" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>80</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>79</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>101</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>102</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>103</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>104</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>82</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>105</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>98</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>81</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>83</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>